--- a/results/yq_test/two_local_random_cz/Rb2Re4/two_local_random_cz_total.xlsx
+++ b/results/yq_test/two_local_random_cz/Rb2Re4/two_local_random_cz_total.xlsx
@@ -8,19 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/two_local_random_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_54E1E7A7DDBADC6F0501C0F0505ED87656CDC170" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59CDBE5A-C60F-CE40-ABB3-85F7129066A1}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_54E1E7A7DDBADC6F0501C0F0505ED87656CDC170" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A7A7129-78E6-3547-8E92-07097EE4BE79}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$B$2:$B$24</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet!$L$2:$L$24</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$P$2:$P$24</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>file name</t>
   </si>
@@ -190,6 +208,14 @@
   </si>
   <si>
     <t>gate cycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enola</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,8 +259,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -250,6 +277,1349 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Two local random circuits</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tetris</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$L$2:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.0620269529066952</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1389696226096178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2242788866600687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3298781092448846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4485954570681097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7432277531520894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9497604012087755</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.638164954318782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1739432903485758</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6843281416138041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1598593668631292</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1028985429422864</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.140041954506685</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.799548200017338</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.161568281437301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.946857077122289</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.53343817751017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103.41906835257069</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90.21736168238175</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>178.98335957014368</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>356.28350779624418</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47.314359900704375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.589146750394107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9207-8F4F-BB32-7683A6913458}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Enola</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$P$2:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.0395018719280202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0664986210237786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1145093285487948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1742536057345045</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2624122086654077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3799632615210071</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5465770052130399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.723473771138649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0784555693053353</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4205271365151111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9368409776551476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6315885619500512</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8883749113090493</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2833461686114127</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1474463146586178</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.6258540597701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.59659303616364</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.612270232583842</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.038630062094207</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78.94205799492326</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>131.40222191454515</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>311.28113145436498</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>510.04031880461673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9207-8F4F-BB32-7683A6913458}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1016407312"/>
+        <c:axId val="1016607488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1016407312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Qubits</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1016607488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1016607488"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1016407312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4F1C3F-D2F8-04C0-62F7-B47BACFF9757}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,18 +1907,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,13 +1954,22 @@
         <v>53</v>
       </c>
       <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>55</v>
       </c>
+      <c r="O1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -624,13 +2004,24 @@
         <v>0.81012108357794388</v>
       </c>
       <c r="L2">
+        <f>E2/K2</f>
+        <v>1.0620269529066952</v>
+      </c>
+      <c r="M2">
         <v>4</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>42</v>
       </c>
+      <c r="O2">
+        <v>0.82767568689604998</v>
+      </c>
+      <c r="P2">
+        <f>E2/O2</f>
+        <v>1.0395018719280202</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -665,13 +2056,24 @@
         <v>0.69700227008141469</v>
       </c>
       <c r="L3">
+        <f t="shared" ref="L3:L24" si="0">E3/K3</f>
+        <v>1.1389696226096178</v>
+      </c>
+      <c r="M3">
         <v>9</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>61</v>
       </c>
+      <c r="O3">
+        <v>0.74436515609425802</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P23" si="1">E3/O3</f>
+        <v>1.0664986210237786</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -706,13 +2108,24 @@
         <v>0.59072275018343667</v>
       </c>
       <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1.2242788866600687</v>
+      </c>
+      <c r="M4">
         <v>14</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>88</v>
       </c>
+      <c r="O4">
+        <v>0.64890384709569404</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>1.1145093285487948</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -747,13 +2160,24 @@
         <v>0.48582149218174908</v>
       </c>
       <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1.3298781092448846</v>
+      </c>
+      <c r="M5">
         <v>20</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>106</v>
       </c>
+      <c r="O5">
+        <v>0.55020769303839001</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>1.1742536057345045</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -788,13 +2212,24 @@
         <v>0.3935827349669932</v>
       </c>
       <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1.4485954570681097</v>
+      </c>
+      <c r="M6">
         <v>26</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>130</v>
       </c>
+      <c r="O6">
+        <v>0.45162915721194502</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>1.2624122086654077</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -829,13 +2264,24 @@
         <v>0.28266349864833828</v>
       </c>
       <c r="L7">
+        <f t="shared" si="0"/>
+        <v>1.7432277531520894</v>
+      </c>
+      <c r="M7">
         <v>39</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>174</v>
       </c>
+      <c r="O7">
+        <v>0.35707244488794698</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>1.3799632615210071</v>
+      </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -870,13 +2316,24 @@
         <v>0.2156207220119547</v>
       </c>
       <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1.9497604012087755</v>
+      </c>
+      <c r="M8">
         <v>47</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>205</v>
       </c>
+      <c r="O8">
+        <v>0.27183175751474697</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>1.5465770052130399</v>
+      </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -911,13 +2368,24 @@
         <v>0.13325316288681541</v>
       </c>
       <c r="L9">
+        <f t="shared" si="0"/>
+        <v>2.638164954318782</v>
+      </c>
+      <c r="M9">
         <v>68</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>242</v>
       </c>
+      <c r="O9">
+        <v>0.20397399152055201</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>1.723473771138649</v>
+      </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -952,13 +2420,24 @@
         <v>9.149281358583379E-2</v>
       </c>
       <c r="L10">
+        <f t="shared" si="0"/>
+        <v>3.1739432903485758</v>
+      </c>
+      <c r="M10">
         <v>81</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>270</v>
       </c>
+      <c r="O10">
+        <v>0.139715761108584</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>2.0784555693053353</v>
+      </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -993,13 +2472,24 @@
         <v>5.0130871219386357E-2</v>
       </c>
       <c r="L11">
+        <f t="shared" si="0"/>
+        <v>4.6843281416138041</v>
+      </c>
+      <c r="M11">
         <v>108</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>333</v>
       </c>
+      <c r="O11">
+        <v>9.7015830673428602E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>2.4205271365151111</v>
+      </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1034,13 +2524,24 @@
         <v>3.600823455621497E-2</v>
       </c>
       <c r="L12">
+        <f t="shared" si="0"/>
+        <v>5.1598593668631292</v>
+      </c>
+      <c r="M12">
         <v>116</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>366</v>
       </c>
+      <c r="O12">
+        <v>6.3264380936088702E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>2.9368409776551476</v>
+      </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1075,13 +2576,24 @@
         <v>2.3991148798577021E-2</v>
       </c>
       <c r="L13">
+        <f t="shared" si="0"/>
+        <v>6.1028985429422864</v>
+      </c>
+      <c r="M13">
         <v>128</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>393</v>
       </c>
+      <c r="O13">
+        <v>4.03172178094224E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>3.6315885619500512</v>
+      </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1116,13 +2628,24 @@
         <v>9.2979271753762319E-3</v>
       </c>
       <c r="L14">
+        <f t="shared" si="0"/>
+        <v>12.140041954506685</v>
+      </c>
+      <c r="M14">
         <v>175</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>416</v>
       </c>
+      <c r="O14">
+        <v>2.3090951092535599E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>4.8883749113090493</v>
+      </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1157,13 +2680,24 @@
         <v>4.7969656906397488E-3</v>
       </c>
       <c r="L15">
+        <f t="shared" si="0"/>
+        <v>17.799548200017338</v>
+      </c>
+      <c r="M15">
         <v>202</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>467</v>
       </c>
+      <c r="O15">
+        <v>1.35889094334653E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>6.2833461686114127</v>
+      </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1198,13 +2732,24 @@
         <v>2.749556321870978E-3</v>
       </c>
       <c r="L16">
+        <f t="shared" si="0"/>
+        <v>23.161568281437301</v>
+      </c>
+      <c r="M16">
         <v>221</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>517</v>
       </c>
+      <c r="O16">
+        <v>6.9619470070701297E-3</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>9.1474463146586178</v>
+      </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1239,13 +2784,24 @@
         <v>1.335820983705052E-3</v>
       </c>
       <c r="L17">
+        <f t="shared" si="0"/>
+        <v>34.946857077122289</v>
+      </c>
+      <c r="M17">
         <v>250</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>549</v>
       </c>
+      <c r="O17">
+        <v>3.6973930458223101E-3</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>12.6258540597701</v>
+      </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1280,13 +2836,24 @@
         <v>6.6880484935231705E-4</v>
       </c>
       <c r="L18">
+        <f t="shared" si="0"/>
+        <v>49.53343817751017</v>
+      </c>
+      <c r="M18">
         <v>276</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>578</v>
       </c>
+      <c r="O18">
+        <v>1.7814125196905499E-3</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>18.59659303616364</v>
+      </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1321,13 +2888,24 @@
         <v>2.2647443723956671E-4</v>
       </c>
       <c r="L19">
+        <f t="shared" si="0"/>
+        <v>103.41906835257069</v>
+      </c>
+      <c r="M19">
         <v>327</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>632</v>
       </c>
+      <c r="O19">
+        <v>8.4823794304859001E-4</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>27.612270232583842</v>
+      </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1362,13 +2940,24 @@
         <v>1.807088242229275E-4</v>
       </c>
       <c r="L20">
+        <f t="shared" si="0"/>
+        <v>90.21736168238175</v>
+      </c>
+      <c r="M20">
         <v>320</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>688</v>
       </c>
+      <c r="O20">
+        <v>3.5411725614183499E-4</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>46.038630062094207</v>
+      </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1403,13 +2992,24 @@
         <v>6.212389442049344E-5</v>
       </c>
       <c r="L21">
+        <f t="shared" si="0"/>
+        <v>178.98335957014368</v>
+      </c>
+      <c r="M21">
         <v>368</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>722</v>
       </c>
+      <c r="O21">
+        <v>1.4085195668037801E-4</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>78.94205799492326</v>
+      </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1444,13 +3044,25 @@
         <v>2.0105406880328151E-5</v>
       </c>
       <c r="L22">
+        <f t="shared" si="0"/>
+        <v>356.28350779624418</v>
+      </c>
+      <c r="M22">
         <v>419</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>827</v>
       </c>
+      <c r="O22" s="1">
+        <v>5.45137272766401E-5</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>131.40222191454515</v>
+      </c>
+      <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1485,13 +3097,24 @@
         <v>1.0823399430002239E-4</v>
       </c>
       <c r="L23">
+        <f t="shared" si="0"/>
+        <v>47.314359900704375</v>
+      </c>
+      <c r="M23">
         <v>282</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>754</v>
       </c>
+      <c r="O23" s="1">
+        <v>1.6451437759415901E-5</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>311.28113145436498</v>
+      </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1526,13 +3149,24 @@
         <v>7.1029805456390469E-5</v>
       </c>
       <c r="L24">
+        <f t="shared" si="0"/>
+        <v>45.589146750394107</v>
+      </c>
+      <c r="M24">
         <v>284</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>786</v>
       </c>
+      <c r="O24" s="1">
+        <v>6.3488867550563097E-6</v>
+      </c>
+      <c r="P24">
+        <f>E24/O24</f>
+        <v>510.04031880461673</v>
+      </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1564,7 +3198,7 @@
         <v>0.27072882652282709</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1596,7 +3230,7 @@
         <v>0.29214382171630859</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1628,7 +3262,7 @@
         <v>0.30493712425231928</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1660,7 +3294,7 @@
         <v>0.40369677543640142</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1692,7 +3326,7 @@
         <v>0.43685197830200201</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1724,7 +3358,7 @@
         <v>0.37630915641784668</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1756,7 +3390,7 @@
         <v>0.4548029899597168</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1803,5 +3437,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/yq_test/two_local_random_cz/Rb2Re4/two_local_random_cz_total.xlsx
+++ b/results/yq_test/two_local_random_cz/Rb2Re4/two_local_random_cz_total.xlsx
@@ -8,18 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/two_local_random_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_54E1E7A7DDBADC6F0501C0F0505ED87656CDC170" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A7A7129-78E6-3547-8E92-07097EE4BE79}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="11_54E1E7A7DDBADC6F0501C0F0505ED87656CDC170" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64E6DF88-F990-6044-83EF-ECC2945A3821}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$B$2:$B$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet!$L$2:$L$24</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$P$2:$P$24</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -300,7 +295,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -313,10 +308,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
               <a:t>Two local random circuits</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -333,7 +328,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -352,8 +347,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -373,7 +368,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet!$B$2:$B$24</c:f>
               <c:numCache>
@@ -450,8 +445,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$L$2:$L$24</c:f>
               <c:numCache>
@@ -528,8 +523,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9207-8F4F-BB32-7683A6913458}"/>
@@ -554,7 +549,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet!$B$2:$B$24</c:f>
               <c:numCache>
@@ -631,8 +626,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$P$2:$P$24</c:f>
               <c:numCache>
@@ -709,8 +704,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9207-8F4F-BB32-7683A6913458}"/>
@@ -725,17 +720,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1016407312"/>
         <c:axId val="1016607488"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1016407312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="27"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -743,7 +753,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -756,10 +766,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
                   <a:t>Qubits</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -776,7 +786,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -814,7 +824,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -831,11 +841,9 @@
         </c:txPr>
         <c:crossAx val="1016607488"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1016607488"/>
         <c:scaling>
@@ -865,7 +873,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -878,10 +886,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Ratio</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
+                  <a:t>Ratio, log scale</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -898,7 +906,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -914,7 +922,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -930,7 +938,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -947,7 +955,7 @@
         </c:txPr>
         <c:crossAx val="1016407312"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -972,7 +980,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1592,9 +1600,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/results/yq_test/two_local_random_cz/Rb2Re4/two_local_random_cz_total.xlsx
+++ b/results/yq_test/two_local_random_cz/Rb2Re4/two_local_random_cz_total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/two_local_random_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="11_54E1E7A7DDBADC6F0501C0F0505ED87656CDC170" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64E6DF88-F990-6044-83EF-ECC2945A3821}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_54E1E7A7DDBADC6F0501C0F0505ED87656CDC170" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49D1C62E-FB0F-3B41-B39D-A154C2B157CF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="260" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1593,16 +1593,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
